--- a/재무제표_dart/감사보고서_전수자료/작년데이터도 없는 회사.xlsx
+++ b/재무제표_dart/감사보고서_전수자료/작년데이터도 없는 회사.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Project\macro\rm\재무제표_dart\감사보고서_전수자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2475B84F-26FF-481C-A357-E38007A41EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A879373E-4439-486A-AB61-96939C1BD79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
